--- a/1data/Parametros - Polinomial.xlsx
+++ b/1data/Parametros - Polinomial.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2680605\HotelSVR\1data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Continente </t>
   </si>
@@ -42,6 +37,15 @@
   </si>
   <si>
     <t xml:space="preserve">Europa </t>
+  </si>
+  <si>
+    <t>America Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America Norte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania </t>
   </si>
 </sst>
 </file>
@@ -351,7 +355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -359,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +413,48 @@
         <v>3.6284349722859499</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2.25</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>8.0523269795344508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>9.6043762822600307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3.3519455766108401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
